--- a/target/test-classes/ExcelUsedForScreenShot.xlsx
+++ b/target/test-classes/ExcelUsedForScreenShot.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10710"/>
+    <workbookView activeTab="2" windowHeight="10710" windowWidth="20730" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Blad1" r:id="rId2" sheetId="2"/>
+    <sheet name="manmohan" r:id="rId3" sheetId="3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="121">
   <si>
     <t>Status</t>
   </si>
@@ -399,11 +400,72 @@
   <si>
     <t xml:space="preserve">Payment captured, tickets not delivered </t>
   </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>"data":{</t>
+  </si>
+  <si>
+    <t>sdfdsfds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "items":[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {"id":"er6645654vddsfdsf",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "name":"niraj"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {"id":"12345adsaffg",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "name":"gupta"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {"id":"989879sdfsdfdsf",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "name":"rekha"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>dsfdsf</t>
+  </si>
+  <si>
+    <t>sdfsd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ]</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>werwerwe</t>
+  </si>
+  <si>
+    <t>sdfsfds</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="10"/>
@@ -531,60 +593,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="4" xfId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -601,10 +663,10 @@
   <a:themeElements>
     <a:clrScheme name="Kantoor">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -768,21 +830,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -799,7 +861,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -851,7 +913,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -859,35 +921,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="87.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="67.28515625" customWidth="1"/>
-    <col min="17" max="17" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="70.140625" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="10" max="11" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="87.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="67.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="4" width="19.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="4" width="13.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="70.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -943,7 +1005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="2" spans="1:19">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -996,7 +1058,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="3" spans="1:19">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1049,7 +1111,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="4" spans="1:19">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1102,7 +1164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="5" spans="1:19">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1155,7 +1217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="6" spans="1:19">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1208,7 +1270,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="7" spans="1:19">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1261,7 +1323,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="8" spans="1:19">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1314,7 +1376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="9" spans="1:19">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1367,7 +1429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="10" spans="1:19">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1420,7 +1482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="11" spans="1:19">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1473,7 +1535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="12" spans="1:19">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1526,7 +1588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="13" spans="1:19">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1579,7 +1641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="14" spans="1:19">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1632,7 +1694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="15" spans="1:19">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1685,7 +1747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="16" spans="1:19">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1738,7 +1800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="17" spans="1:19">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1791,7 +1853,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="18" spans="1:19">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1844,7 +1906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="19" spans="1:19">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1897,7 +1959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="20" spans="1:19">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1950,7 +2012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="21" spans="1:19">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2003,7 +2065,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="22" spans="1:19">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -2056,7 +2118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="23" spans="1:19">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2109,7 +2171,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="24" spans="1:19">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2162,7 +2224,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="25" spans="1:19">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2218,18 +2280,18 @@
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter alignWithMargins="0"/>
   <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Blad1!$A$1:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>Q1:Q1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Blad1!$B$1:$B$7</xm:f>
           </x14:formula1>
@@ -2243,7 +2305,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -2251,11 +2313,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="59.5703125" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="59.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="51.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30.75" thickBot="1">
+    <row ht="30.75" r="1" spans="1:2" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -2263,7 +2325,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+    <row ht="15.75" r="2" spans="1:2" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
@@ -2271,7 +2333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="38.25">
+    <row ht="38.25" r="3" spans="1:2">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -2279,7 +2341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1">
+    <row ht="15.75" r="4" spans="1:2" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
@@ -2296,10 +2358,201 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C9" type="list">
       <formula1>$B$1:$B$3</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>